--- a/banhang24/Template/ExportExcel/Report/BaoCaoGoiDichVu/Teamplate_TongHopNhatKySuDungGoiDichVu.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoGoiDichVu/Teamplate_TongHopNhatKySuDungGoiDichVu.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TongHop!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
